--- a/07, Project Office/Project Plan for Automated Attendance System.xlsx
+++ b/07, Project Office/Project Plan for Automated Attendance System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA10FAC-205A-436C-97BA-E6A92022175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{851FF1BD-9DCF-413E-8C3C-4AC581B54284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{077D689C-644D-495B-902A-9CDD592A0C73}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>TASK ID</t>
   </si>
@@ -153,9 +153,6 @@
     <t>ESTIMATADE HOURS</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Planned Start Date</t>
   </si>
   <si>
@@ -168,14 +165,14 @@
     <t>Actual End Date</t>
   </si>
   <si>
-    <t>Complete</t>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +191,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF09090B"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
@@ -218,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FB4D80-6DDA-4B7B-A3F0-2F3AF792E957}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +596,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -620,8 +627,8 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -643,7 +650,9 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -664,7 +673,9 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -702,8 +713,8 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -725,7 +736,9 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -746,7 +759,9 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -767,7 +782,9 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -805,8 +822,8 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -828,7 +845,9 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -849,7 +868,9 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -887,8 +908,8 @@
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -910,7 +931,9 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -931,7 +954,9 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -952,7 +977,9 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -990,8 +1017,8 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
+      <c r="G20" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1013,7 +1040,9 @@
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1034,7 +1063,9 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1055,7 +1086,9 @@
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1076,7 +1109,9 @@
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1114,8 +1149,8 @@
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1137,7 +1172,9 @@
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1158,7 +1195,9 @@
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1196,8 +1235,8 @@
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>42</v>
+      <c r="G30" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1219,7 +1258,9 @@
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1240,7 +1281,9 @@
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
